--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5CD67A80-1F11-4024-8A49-5958BB557664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00F6918-223B-4EEE-848C-BC5C7C097363}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5CD67A80-1F11-4024-8A49-5958BB557664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE6A86-651B-4159-9DC1-0A3225CECC31}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Projet Analyseur de Réseau Electrique</t>
   </si>
   <si>
-    <t>Références</t>
-  </si>
-  <si>
     <t>Quantité</t>
   </si>
   <si>
@@ -59,16 +56,114 @@
   </si>
   <si>
     <t>Pin out de la carte</t>
+  </si>
+  <si>
+    <t>Capteur de tension</t>
+  </si>
+  <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>FARNELL</t>
+  </si>
+  <si>
+    <t>Références constructeur</t>
+  </si>
+  <si>
+    <t>Référence fournisseur</t>
+  </si>
+  <si>
+    <t>LV 25-P</t>
+  </si>
+  <si>
+    <t>Fiches bananes 4mm femelle Rouge</t>
+  </si>
+  <si>
+    <t>Fiches bananes 4mm femelle Jaune</t>
+  </si>
+  <si>
+    <t>Fiches bananes 4mm femelle Bleu</t>
+  </si>
+  <si>
+    <t>Fiches bananes 4mm femelle Noir</t>
+  </si>
+  <si>
+    <t>Repère CI</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SWEB 8094 AU / RT</t>
+  </si>
+  <si>
+    <t>SWEB 8094 AU / GE</t>
+  </si>
+  <si>
+    <t>SWEB 8094 AU / BL</t>
+  </si>
+  <si>
+    <t>SWEB 8094 AU / SW</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>Alimentation Traco Power +/- 15V</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Connecteur SubD 15 pts Femelle</t>
+  </si>
+  <si>
+    <t>TMP 15215</t>
+  </si>
+  <si>
+    <t>495-TMP15215</t>
+  </si>
+  <si>
+    <t>88715-5005</t>
+  </si>
+  <si>
+    <t>517-88715-5005-15P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,13 +186,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,39 +516,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1617416</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>77.53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3224813</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5.81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3224811</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5.65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3224810</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5.43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3224814</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5.76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>40.39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3.58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" tooltip="SWEB 8094 AU / RT" display="https://fr.farnell.com/schutzinger/sweb-8094-au-rt/fiche-banane-femelle-24a-rouge/dp/3224813?st=fiche%20banane%20pour%20pcb" xr:uid="{FC6222C5-24AC-4C0A-ACE3-3D9C21655717}"/>
+    <hyperlink ref="C10" r:id="rId2" tooltip="SWEB 8094 AU / GE" display="https://fr.farnell.com/schutzinger/sweb-8094-au-ge/fiche-banane-femelle-24a-jaune/dp/3224811?st=fiche%20banane%20pour%20pcb" xr:uid="{469CC455-F575-42FB-B3D7-05AC0C2B6B70}"/>
+    <hyperlink ref="C11" r:id="rId3" tooltip="SWEB 8094 AU / BL" display="https://fr.farnell.com/schutzinger/sweb-8094-au-bl/conn-banane-femelle-24a-bleu/dp/3224810?st=fiche%20banane%20pour%20pcb" xr:uid="{F75AE93E-75B5-4DFC-AAE0-5FFFFB2D5973}"/>
+    <hyperlink ref="C12" r:id="rId4" tooltip="SWEB 8094 AU / SW" display="https://fr.farnell.com/schutzinger/sweb-8094-au-sw/conn-banane-femelle-24a-noir/dp/3224814?st=fiche%20banane%20pour%20pcb" xr:uid="{9FD5AF96-E22A-49DD-95B6-D1A65942B65F}"/>
+    <hyperlink ref="C14" r:id="rId5" display="https://www.mouser.fr/ProductDetail/TRACO-Power/TMP-30215?qs=ckJk83FOD0XyGILCEMzHzw%3D%3D" xr:uid="{736A5E5F-3E8B-4D5A-962F-618BD10D17A6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -451,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -459,12 +749,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5CD67A80-1F11-4024-8A49-5958BB557664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EE6A86-651B-4159-9DC1-0A3225CECC31}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{5CD67A80-1F11-4024-8A49-5958BB557664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC999BE-8A10-45C1-97FF-2752783EC1E0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -140,6 +140,33 @@
   </si>
   <si>
     <t>517-88715-5005-15P</t>
+  </si>
+  <si>
+    <t>Régulateur 3,3V</t>
+  </si>
+  <si>
+    <t>U1, U2, U3</t>
+  </si>
+  <si>
+    <t>LM2937ESX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>Prix Total</t>
+  </si>
+  <si>
+    <t>Amplificateur</t>
+  </si>
+  <si>
+    <t>OP1 à OP7</t>
+  </si>
+  <si>
+    <t>OP275GSZ</t>
+  </si>
+  <si>
+    <t>Connecteur BNC</t>
   </si>
 </sst>
 </file>
@@ -192,9 +219,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -216,6 +247,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -516,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,185 +563,256 @@
     <col min="2" max="2" width="32.54296875" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>1617416</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>77.53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <f>E7*F7</f>
+        <v>232.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8">
+        <f t="shared" ref="I8:I20" si="0">E8*F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>3224813</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>5.81</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>3224811</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5.65</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>3224810</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>5.43</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>3224814</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>5.76</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>40.39</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>40.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -715,15 +821,214 @@
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>3.58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3122059</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4021486</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -732,6 +1037,7 @@
     <hyperlink ref="C11" r:id="rId3" tooltip="SWEB 8094 AU / BL" display="https://fr.farnell.com/schutzinger/sweb-8094-au-bl/conn-banane-femelle-24a-bleu/dp/3224810?st=fiche%20banane%20pour%20pcb" xr:uid="{F75AE93E-75B5-4DFC-AAE0-5FFFFB2D5973}"/>
     <hyperlink ref="C12" r:id="rId4" tooltip="SWEB 8094 AU / SW" display="https://fr.farnell.com/schutzinger/sweb-8094-au-sw/conn-banane-femelle-24a-noir/dp/3224814?st=fiche%20banane%20pour%20pcb" xr:uid="{9FD5AF96-E22A-49DD-95B6-D1A65942B65F}"/>
     <hyperlink ref="C14" r:id="rId5" display="https://www.mouser.fr/ProductDetail/TRACO-Power/TMP-30215?qs=ckJk83FOD0XyGILCEMzHzw%3D%3D" xr:uid="{736A5E5F-3E8B-4D5A-962F-618BD10D17A6}"/>
+    <hyperlink ref="C20" r:id="rId6" tooltip="OP275GSZ" display="https://fr.farnell.com/analog-devices/op275gsz/ampli-op-9mhz-40-a-85-c-nsoic/dp/4021486?st=op275" xr:uid="{8E5C894A-2517-47D1-997C-6B89569E0635}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliensaint-leger/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{5CD67A80-1F11-4024-8A49-5958BB557664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC999BE-8A10-45C1-97FF-2752783EC1E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Carte Acquisition" sheetId="1" r:id="rId1"/>
+    <sheet name="Carte Traitement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Designation</t>
-  </si>
-  <si>
-    <t>Projet Analyseur de réseau électrique</t>
-  </si>
-  <si>
-    <t>Pin out de la carte</t>
   </si>
   <si>
     <t>Capteur de tension</t>
@@ -246,18 +240,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,41 +539,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
@@ -596,13 +582,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -610,15 +596,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>1617416</v>
@@ -630,14 +616,14 @@
         <v>77.53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <f>E7*F7</f>
         <v>232.59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
@@ -649,15 +635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>3224813</v>
@@ -669,22 +655,22 @@
         <v>5.81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
         <v>5.81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>3224811</v>
@@ -696,22 +682,22 @@
         <v>5.65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
         <v>5.65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>3224810</v>
@@ -723,22 +709,22 @@
         <v>5.43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
         <v>5.43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>3224814</v>
@@ -750,14 +736,14 @@
         <v>5.76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>5.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -769,18 +755,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -789,14 +775,14 @@
         <v>40.39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>40.39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -808,18 +794,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -828,14 +814,14 @@
         <v>3.58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>3.58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -847,15 +833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>3122059</v>
@@ -867,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>2.41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -885,15 +871,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>4021486</v>
@@ -905,7 +891,7 @@
         <v>4.13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
@@ -913,7 +899,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -921,9 +907,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -934,7 +920,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -942,7 +928,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -950,7 +936,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -958,7 +944,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -966,7 +952,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -974,7 +960,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -982,7 +968,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -990,7 +976,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -998,7 +984,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1006,7 +992,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1014,7 +1000,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1022,7 +1008,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1040,30 +1026,120 @@
     <hyperlink ref="C20" r:id="rId6" tooltip="OP275GSZ" display="https://fr.farnell.com/analog-devices/op275gsz/ampli-op-9mhz-40-a-85-c-nsoic/dp/4021486?st=op275" xr:uid="{8E5C894A-2517-47D1-997C-6B89569E0635}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K008000 Interne SNCF Réseau</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K008000 Interne SNCF Réseau</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliensaint-leger/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingw\Documents\GitHub\2324_Projet3DN_AnalyseurQualiteReseauElectrique\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BA4AA8-4563-4152-8F8F-12E711A3B1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -161,6 +152,24 @@
   </si>
   <si>
     <t>Connecteur BNC</t>
+  </si>
+  <si>
+    <t>Microcontrolleur</t>
+  </si>
+  <si>
+    <t>LDO 3,3V</t>
+  </si>
+  <si>
+    <t>1,68</t>
+  </si>
+  <si>
+    <t>STM32G474RET6</t>
+  </si>
+  <si>
+    <t>WE173950336</t>
+  </si>
+  <si>
+    <t>WE</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -221,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -241,9 +253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +293,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -387,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,30 +551,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -588,7 +600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -596,7 +608,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -623,7 +635,7 @@
         <v>232.59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
@@ -635,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -662,7 +674,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -689,7 +701,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -716,7 +728,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -743,7 +755,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -755,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -782,7 +794,7 @@
         <v>40.39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -794,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -821,7 +833,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -833,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -859,7 +871,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -871,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -899,7 +911,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -907,7 +919,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -920,7 +932,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -928,7 +940,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -936,7 +948,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -944,7 +956,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -952,7 +964,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -960,7 +972,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -968,7 +980,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -976,7 +988,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -984,7 +996,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -992,7 +1004,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1000,7 +1012,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1008,7 +1020,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1034,33 +1046,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1086,53 +1098,85 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>173950336</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliensaint-leger/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132964F-3943-D64A-BC03-DF2F3CEA6E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="14280" windowHeight="17520" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Carte Acquisition" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1086,56 +1086,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliensaint-leger/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Carte Acquisition" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -387,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,30 +539,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -596,7 +596,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -623,7 +623,7 @@
         <v>232.59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -662,7 +662,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -689,7 +689,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -716,7 +716,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -743,7 +743,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -782,7 +782,7 @@
         <v>40.39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -821,7 +821,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -859,7 +859,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -899,7 +899,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -907,7 +907,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -928,7 +928,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -936,7 +936,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -944,7 +944,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -952,7 +952,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -960,7 +960,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -968,7 +968,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -976,7 +976,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -984,7 +984,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -992,7 +992,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1000,7 +1000,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1008,7 +1008,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1036,31 +1036,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1086,52 +1086,52 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingw\Documents\GitHub\2324_Projet3DN_AnalyseurQualiteReseauElectrique\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BA4AA8-4563-4152-8F8F-12E711A3B1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33864C-CD2E-496A-9C0D-CC708CC700CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Microcontrolleur</t>
   </si>
   <si>
-    <t>LDO 3,3V</t>
-  </si>
-  <si>
     <t>1,68</t>
   </si>
   <si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>WE</t>
+  </si>
+  <si>
+    <t>MagI3C Power Module 3,3V</t>
+  </si>
+  <si>
+    <t>Tact Switch</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -234,6 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1046,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1107,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1114,10 +1118,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>173950336</v>
@@ -1129,54 +1133,62 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="5">
+        <v>430182043816</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7DE2737-ECF6-41E7-B68D-4E0D2D360675}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -85,18 +85,6 @@
     <t>Repère CI</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>SWEB 8094 AU / RT</t>
   </si>
   <si>
@@ -161,13 +149,34 @@
   </si>
   <si>
     <t>Connecteur BNC</t>
+  </si>
+  <si>
+    <t>J1 à J4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>217-778</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +194,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -220,6 +236,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -537,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -601,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -631,7 +650,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="I8">
-        <f t="shared" ref="I8:I20" si="0">E8*F8</f>
+        <f t="shared" ref="I8:I22" si="0">E8*F8</f>
         <v>0</v>
       </c>
     </row>
@@ -640,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>3224813</v>
@@ -667,10 +686,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>3224811</v>
@@ -694,10 +713,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>3224810</v>
@@ -721,10 +740,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>3224814</v>
@@ -756,31 +775,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>40.39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>40.39</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
@@ -789,36 +789,32 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>3.58</v>
+        <v>40.39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>3.58</v>
+        <v>40.39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -835,28 +831,29 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3122059</v>
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I18">
-        <v>2.41</v>
+        <f t="shared" si="0"/>
+        <v>3.58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -873,30 +870,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="1">
-        <v>4021486</v>
+        <v>3122059</v>
       </c>
       <c r="E20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>28.91</v>
+      <c r="I20">
+        <v>2.41</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -906,19 +901,38 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4021486</v>
+      </c>
       <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>28.91</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
@@ -929,12 +943,25 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
@@ -1016,16 +1043,33 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" tooltip="SWEB 8094 AU / RT" display="https://fr.farnell.com/schutzinger/sweb-8094-au-rt/fiche-banane-femelle-24a-rouge/dp/3224813?st=fiche%20banane%20pour%20pcb" xr:uid="{FC6222C5-24AC-4C0A-ACE3-3D9C21655717}"/>
     <hyperlink ref="C10" r:id="rId2" tooltip="SWEB 8094 AU / GE" display="https://fr.farnell.com/schutzinger/sweb-8094-au-ge/fiche-banane-femelle-24a-jaune/dp/3224811?st=fiche%20banane%20pour%20pcb" xr:uid="{469CC455-F575-42FB-B3D7-05AC0C2B6B70}"/>
     <hyperlink ref="C11" r:id="rId3" tooltip="SWEB 8094 AU / BL" display="https://fr.farnell.com/schutzinger/sweb-8094-au-bl/conn-banane-femelle-24a-bleu/dp/3224810?st=fiche%20banane%20pour%20pcb" xr:uid="{F75AE93E-75B5-4DFC-AAE0-5FFFFB2D5973}"/>
     <hyperlink ref="C12" r:id="rId4" tooltip="SWEB 8094 AU / SW" display="https://fr.farnell.com/schutzinger/sweb-8094-au-sw/conn-banane-femelle-24a-noir/dp/3224814?st=fiche%20banane%20pour%20pcb" xr:uid="{9FD5AF96-E22A-49DD-95B6-D1A65942B65F}"/>
-    <hyperlink ref="C14" r:id="rId5" display="https://www.mouser.fr/ProductDetail/TRACO-Power/TMP-30215?qs=ckJk83FOD0XyGILCEMzHzw%3D%3D" xr:uid="{736A5E5F-3E8B-4D5A-962F-618BD10D17A6}"/>
-    <hyperlink ref="C20" r:id="rId6" tooltip="OP275GSZ" display="https://fr.farnell.com/analog-devices/op275gsz/ampli-op-9mhz-40-a-85-c-nsoic/dp/4021486?st=op275" xr:uid="{8E5C894A-2517-47D1-997C-6B89569E0635}"/>
+    <hyperlink ref="C16" r:id="rId5" display="https://www.mouser.fr/ProductDetail/TRACO-Power/TMP-30215?qs=ckJk83FOD0XyGILCEMzHzw%3D%3D" xr:uid="{736A5E5F-3E8B-4D5A-962F-618BD10D17A6}"/>
+    <hyperlink ref="C22" r:id="rId6" tooltip="OP275GSZ" display="https://fr.farnell.com/analog-devices/op275gsz/ampli-op-9mhz-40-a-85-c-nsoic/dp/4021486?st=op275" xr:uid="{8E5C894A-2517-47D1-997C-6B89569E0635}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId7"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K008000 Interne SNCF Réseau</oddFooter>
   </headerFooter>
@@ -1083,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1113,27 +1157,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7DE2737-ECF6-41E7-B68D-4E0D2D360675}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1167C9DD-0591-46AC-B666-56287DE0E6B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>Porte fusible</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>563-469</t>
+  </si>
+  <si>
+    <t>Fusible (250mA 5 x 20mm Type F 250V c.a)</t>
+  </si>
+  <si>
+    <t>LED verte</t>
+  </si>
+  <si>
+    <t>LED Orange</t>
   </si>
 </sst>
 </file>
@@ -257,6 +278,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,13 +583,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
@@ -972,20 +997,42 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
@@ -996,18 +1043,28 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1167C9DD-0591-46AC-B666-56287DE0E6B9}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316BFDA0-6BAA-4DC2-A0D7-A29E8AF15A41}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -118,12 +118,6 @@
     <t>495-TMP15215</t>
   </si>
   <si>
-    <t>88715-5005</t>
-  </si>
-  <si>
-    <t>517-88715-5005-15P</t>
-  </si>
-  <si>
     <t>Régulateur 3,3V</t>
   </si>
   <si>
@@ -191,6 +185,27 @@
   </si>
   <si>
     <t>LED Orange</t>
+  </si>
+  <si>
+    <t>Résistances</t>
+  </si>
+  <si>
+    <t>R21, R26, R31, R36</t>
+  </si>
+  <si>
+    <t>356024KFT</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>MC000830</t>
+  </si>
+  <si>
+    <t>2311763-3</t>
+  </si>
+  <si>
+    <t>217-5452</t>
   </si>
 </sst>
 </file>
@@ -281,6 +296,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -583,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -645,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -675,7 +694,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="I8">
-        <f t="shared" ref="I8:I22" si="0">E8*F8</f>
+        <f t="shared" ref="I8:I31" si="0">E8*F8</f>
         <v>0</v>
       </c>
     </row>
@@ -711,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -738,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
@@ -765,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
@@ -859,26 +878,26 @@
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>3.58</v>
+        <v>3.6960000000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>3.58</v>
+        <v>7.3920000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -895,13 +914,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="1">
         <v>3122059</v>
@@ -933,13 +952,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>4021486</v>
@@ -966,17 +985,21 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
@@ -985,7 +1008,11 @@
         <v>6.16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>24.64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -995,34 +1022,46 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2461161</v>
+      </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1031,7 +1070,11 @@
         <v>0.315</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1041,10 +1084,14 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1054,10 +1101,14 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1067,14 +1118,37 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3231229</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
@@ -1184,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1224,17 +1298,17 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316BFDA0-6BAA-4DC2-A0D7-A29E8AF15A41}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1D6122-FF24-49B8-A4C2-ED83762679BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -160,9 +160,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>217-778</t>
-  </si>
-  <si>
     <t>RS</t>
   </si>
   <si>
@@ -202,17 +199,35 @@
     <t>MC000830</t>
   </si>
   <si>
-    <t>2311763-3</t>
-  </si>
-  <si>
-    <t>217-5452</t>
+    <t>517-88715-5005-15P</t>
+  </si>
+  <si>
+    <t>88715-5005, 15P D-SUB</t>
+  </si>
+  <si>
+    <t>Connecteur SubD 15 pts mâle</t>
+  </si>
+  <si>
+    <t>Prix total</t>
+  </si>
+  <si>
+    <t>217-7787</t>
+  </si>
+  <si>
+    <t>Coût Carte d'acquisition</t>
+  </si>
+  <si>
+    <t>Coût carte de traitement</t>
+  </si>
+  <si>
+    <t>Coût total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +256,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -276,6 +331,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -300,6 +368,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -600,66 +672,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6328125" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="L6">
+        <f>SUM(I7:I49)</f>
+        <v>364.06500000000005</v>
+      </c>
+      <c r="N6" s="8">
+        <f>L6+M6</f>
+        <v>364.06500000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -681,24 +792,26 @@
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <f>E7*F7</f>
         <v>232.59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="I8">
-        <f t="shared" ref="I8:I31" si="0">E8*F8</f>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I32" si="0">E8*F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -720,12 +833,13 @@
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>5.81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -747,12 +861,13 @@
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>5.65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -774,12 +889,13 @@
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>5.43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -801,40 +917,46 @@
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>5.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="I13">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -856,7 +978,8 @@
       <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>40.39</v>
       </c>
@@ -868,7 +991,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -884,169 +1008,168 @@
         <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>3.6960000000000002</v>
+        <v>3.58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>7.3920000000000003</v>
+        <v>21</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>7.16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>3122059</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F21" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I20">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
         <v>2.41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4021486</v>
-      </c>
-      <c r="E22" s="2">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4.13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4021486</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
         <v>28.91</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2">
-        <v>6.16</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>24.64</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2461161</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1054,53 +1177,64 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2461161</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>0.315</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>0.315</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1108,16 +1242,17 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1125,79 +1260,512 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D32" s="2">
+        <v>3231229</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2">
-        <v>3231229</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" tooltip="SWEB 8094 AU / RT" display="https://fr.farnell.com/schutzinger/sweb-8094-au-rt/fiche-banane-femelle-24a-rouge/dp/3224813?st=fiche%20banane%20pour%20pcb" xr:uid="{FC6222C5-24AC-4C0A-ACE3-3D9C21655717}"/>
     <hyperlink ref="C10" r:id="rId2" tooltip="SWEB 8094 AU / GE" display="https://fr.farnell.com/schutzinger/sweb-8094-au-ge/fiche-banane-femelle-24a-jaune/dp/3224811?st=fiche%20banane%20pour%20pcb" xr:uid="{469CC455-F575-42FB-B3D7-05AC0C2B6B70}"/>
     <hyperlink ref="C11" r:id="rId3" tooltip="SWEB 8094 AU / BL" display="https://fr.farnell.com/schutzinger/sweb-8094-au-bl/conn-banane-femelle-24a-bleu/dp/3224810?st=fiche%20banane%20pour%20pcb" xr:uid="{F75AE93E-75B5-4DFC-AAE0-5FFFFB2D5973}"/>
     <hyperlink ref="C12" r:id="rId4" tooltip="SWEB 8094 AU / SW" display="https://fr.farnell.com/schutzinger/sweb-8094-au-sw/conn-banane-femelle-24a-noir/dp/3224814?st=fiche%20banane%20pour%20pcb" xr:uid="{9FD5AF96-E22A-49DD-95B6-D1A65942B65F}"/>
     <hyperlink ref="C16" r:id="rId5" display="https://www.mouser.fr/ProductDetail/TRACO-Power/TMP-30215?qs=ckJk83FOD0XyGILCEMzHzw%3D%3D" xr:uid="{736A5E5F-3E8B-4D5A-962F-618BD10D17A6}"/>
-    <hyperlink ref="C22" r:id="rId6" tooltip="OP275GSZ" display="https://fr.farnell.com/analog-devices/op275gsz/ampli-op-9mhz-40-a-85-c-nsoic/dp/4021486?st=op275" xr:uid="{8E5C894A-2517-47D1-997C-6B89569E0635}"/>
+    <hyperlink ref="C23" r:id="rId6" tooltip="OP275GSZ" display="https://fr.farnell.com/analog-devices/op275gsz/ampli-op-9mhz-40-a-85-c-nsoic/dp/4021486?st=op275" xr:uid="{8E5C894A-2517-47D1-997C-6B89569E0635}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId7"/>
@@ -1212,7 +1780,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1D6122-FF24-49B8-A4C2-ED83762679BB}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7DC871-C7F3-4929-8BFE-F5AB0CBBC68C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -184,9 +184,6 @@
     <t>LED Orange</t>
   </si>
   <si>
-    <t>Résistances</t>
-  </si>
-  <si>
     <t>R21, R26, R31, R36</t>
   </si>
   <si>
@@ -221,13 +218,66 @@
   </si>
   <si>
     <t>Coût total</t>
+  </si>
+  <si>
+    <t>C1, C3 à C14</t>
+  </si>
+  <si>
+    <t>ENSEA</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <r>
+      <t>Résistances 25k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω/6W</t>
+    </r>
+  </si>
+  <si>
+    <t>Résistances CMS 100Ω R_0603_1608Metric_Pad0.98x0.95mm</t>
+  </si>
+  <si>
+    <t>R23, R24, R28, R29, R33, R34</t>
+  </si>
+  <si>
+    <t>R3, R4, R5, R7, R8, R9, R11, R12, R13, R15, R16, R17, R19, R20, R22, R25, R27, R30, R32</t>
+  </si>
+  <si>
+    <t>R6, R10, R14, R18</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>Condensateur CMS 10uF C_0603_1608Metric_Pad1.08x0.95mm</t>
+  </si>
+  <si>
+    <t>Condensateur CMS 0,1uF C_0603_1608Metric_Pad1.08x0.95mm</t>
+  </si>
+  <si>
+    <t>Résistances CMS 1kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
+  </si>
+  <si>
+    <t>Résistances CMS 8,25kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
+  </si>
+  <si>
+    <t>Résistances CMS 7,5kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +346,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -332,18 +388,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -372,6 +434,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -672,16 +738,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -691,65 +757,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -762,12 +828,12 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="L6">
-        <f>SUM(I7:I49)</f>
-        <v>364.06500000000005</v>
-      </c>
-      <c r="N6" s="8">
+        <f>SUM(I7:I54)</f>
+        <v>376.33700000000005</v>
+      </c>
+      <c r="N6" s="6">
         <f>L6+M6</f>
-        <v>364.06500000000005</v>
+        <v>376.33700000000005</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -806,10 +872,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:I32" si="0">E8*F8</f>
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -825,7 +888,7 @@
         <v>3224813</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
         <v>5.81</v>
@@ -835,8 +898,8 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.81</v>
+        <f t="shared" ref="I8:I40" si="0">E9*F9</f>
+        <v>11.62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -909,7 +972,7 @@
         <v>3224814</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>5.76</v>
@@ -920,7 +983,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>5.76</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -931,10 +994,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
@@ -1005,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -1027,7 +1087,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1049,10 +1109,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1090,10 +1147,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1131,10 +1185,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -1145,7 +1196,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
@@ -1170,10 +1221,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -1183,7 +1231,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="2">
         <v>2461161</v>
@@ -1191,14 +1239,16 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0.70199999999999996</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1235,10 +1285,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -1250,8 +1297,12 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
@@ -1268,8 +1319,12 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
@@ -1277,84 +1332,137 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3231229</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3231229</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="E35" s="2">
+        <v>19</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1362,29 +1470,60 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="E39" s="2">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1394,7 +1533,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1404,7 +1543,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1414,7 +1553,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1424,7 +1563,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1434,7 +1573,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1444,7 +1583,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1454,7 +1593,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1753,6 +1892,56 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -395,17 +395,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -438,6 +438,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -740,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -757,30 +761,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -898,7 +902,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <f t="shared" ref="I8:I40" si="0">E9*F9</f>
+        <f t="shared" ref="I9:I40" si="0">E9*F9</f>
         <v>11.62</v>
       </c>
     </row>
@@ -1376,7 +1380,7 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="2"/>
@@ -1394,7 +1398,7 @@
       <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="2"/>
@@ -1405,7 +1409,7 @@
       <c r="F35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="9" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="2"/>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7DC871-C7F3-4929-8BFE-F5AB0CBBC68C}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA176F0-EC64-4969-A20B-E05A354831BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Résistances CMS 7,5kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
+  </si>
+  <si>
+    <t>P2,P3</t>
+  </si>
+  <si>
+    <t>88415-6000, 15P D-SUB</t>
+  </si>
+  <si>
+    <t>517-88415-6000-15P</t>
   </si>
 </sst>
 </file>
@@ -353,15 +362,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -369,37 +384,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +418,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -442,6 +486,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -744,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,30 +809,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -796,10 +844,10 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -812,1140 +860,1165 @@
       <c r="I5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="L6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="16">
         <f>SUM(I7:I54)</f>
-        <v>376.33700000000005</v>
-      </c>
-      <c r="N6" s="6">
+        <v>381.89699999999999</v>
+      </c>
+      <c r="N6" s="17">
         <f>L6+M6</f>
-        <v>376.33700000000005</v>
+        <v>381.89699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10">
         <v>1617416</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <v>77.53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <f>E7*F7</f>
         <v>232.59</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="10">
         <v>3224813</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>5.81</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <f t="shared" ref="I9:I40" si="0">E9*F9</f>
         <v>11.62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>3224811</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <v>5.65</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>5.65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="10">
         <v>3224810</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
         <v>5.43</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>5.43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="10">
         <v>3224814</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>5.76</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>11.52</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="8">
         <v>40.39</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>40.39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F19" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3122059</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4021486</v>
+      </c>
+      <c r="E23" s="9">
+        <v>7</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="9">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8">
+        <v>6.16</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2461161</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.315</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3122059</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="G30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4021486</v>
-      </c>
-      <c r="E23" s="2">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.13</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>28.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3231229</v>
+      </c>
+      <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="F25" s="2">
-        <v>6.16</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>24.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2461161</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="F33" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
+        <v>19</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>4</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.315</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="2">
-        <v>3231229</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>19</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2000,25 +2073,25 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA176F0-EC64-4969-A20B-E05A354831BC}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83187EA-835D-4588-B788-3DE538D5E925}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>Résistances CMS 1kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
   </si>
   <si>
-    <t>Résistances CMS 8,25kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
-  </si>
-  <si>
     <t>Résistances CMS 7,5kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>517-88415-6000-15P</t>
+  </si>
+  <si>
+    <t>Résistances CMS 4,5kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
   </si>
 </sst>
 </file>
@@ -412,12 +412,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,6 +445,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -490,6 +490,10 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -792,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,55 +813,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -871,731 +875,731 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="L6" s="16">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="L6" s="14">
         <f>SUM(I7:I54)</f>
         <v>381.89699999999999</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <f>L6+M6</f>
         <v>381.89699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1617416</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>77.53</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <f>E7*F7</f>
         <v>232.59</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>3224813</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>5.81</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <f t="shared" ref="I9:I40" si="0">E9*F9</f>
         <v>11.62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>3224811</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>5.65</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>5.65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>3224810</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>5.43</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>5.43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>3224814</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>5.76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>11.52</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>40.39</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>40.39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>3.58</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
         <v>3.58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3122059</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.41</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4021486</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4.13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2461161</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.315</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3231229</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7">
+        <v>19</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="9">
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>9.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="10">
-        <v>3122059</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
-        <v>2.41</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10">
-        <v>4021486</v>
-      </c>
-      <c r="E23" s="9">
-        <v>7</v>
-      </c>
-      <c r="F23" s="8">
-        <v>4.13</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8">
-        <f t="shared" si="0"/>
-        <v>28.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="9">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8">
-        <v>6.16</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8">
-        <f t="shared" si="0"/>
-        <v>24.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2461161</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.315</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="9">
-        <v>3231229</v>
-      </c>
-      <c r="E33" s="9">
-        <v>4</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>19</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
-        <v>4</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>13</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Hardware/Nomenclature des composants.xlsx
+++ b/Hardware/Nomenclature des composants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83187EA-835D-4588-B788-3DE538D5E925}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{B0D7A9BF-5117-1B46-ABB6-B54B966E7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D05DD277-DF02-4099-93EB-DBFD1990EE16}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>Nomenclature des composants</t>
   </si>
@@ -194,15 +194,6 @@
   </si>
   <si>
     <t>MC000830</t>
-  </si>
-  <si>
-    <t>517-88715-5005-15P</t>
-  </si>
-  <si>
-    <t>88715-5005, 15P D-SUB</t>
-  </si>
-  <si>
-    <t>Connecteur SubD 15 pts mâle</t>
   </si>
   <si>
     <t>Prix total</t>
@@ -273,13 +264,19 @@
     <t>P2,P3</t>
   </si>
   <si>
-    <t>88415-6000, 15P D-SUB</t>
-  </si>
-  <si>
-    <t>517-88415-6000-15P</t>
-  </si>
-  <si>
     <t>Résistances CMS 4,5kΩ R_0603_1608Metric_Pad0.98x0.95mm</t>
+  </si>
+  <si>
+    <t>Connecteur SubD 15 pts Mâle</t>
+  </si>
+  <si>
+    <t>710-618015231421</t>
+  </si>
+  <si>
+    <t>618015231421</t>
+  </si>
+  <si>
+    <t>710-61801524923</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -415,9 +412,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -426,12 +420,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +438,22 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,34 +477,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,7 +518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -644,7 +624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,30 +793,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -848,10 +828,10 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -862,39 +842,39 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="L6" s="14">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="L6" s="11">
         <f>SUM(I7:I54)</f>
-        <v>381.89699999999999</v>
-      </c>
-      <c r="N6" s="15">
+        <v>373.25700000000001</v>
+      </c>
+      <c r="N6" s="12">
         <f>L6+M6</f>
-        <v>381.89699999999999</v>
+        <v>373.25700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -903,10 +883,10 @@
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1617416</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
       <c r="F7" s="6">
@@ -922,30 +902,30 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3224813</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="6">
@@ -961,19 +941,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3224811</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6">
@@ -989,19 +969,19 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3224810</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6">
@@ -1017,19 +997,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>3224814</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="6">
@@ -1045,52 +1025,52 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="6">
@@ -1106,65 +1086,65 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
+      <c r="A18" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="6">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>3.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>55</v>
+      <c r="A19" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6">
+        <v>61801524923</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
       <c r="F19" s="6">
-        <v>4.57</v>
+        <v>2.04</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
@@ -1172,34 +1152,34 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>9.14</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>3122059</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
@@ -1215,30 +1195,30 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>4021486</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>7</v>
       </c>
       <c r="F23" s="6">
@@ -1254,28 +1234,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="6">
         <v>4</v>
       </c>
       <c r="F25" s="6">
@@ -1291,18 +1271,18 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1311,10 +1291,10 @@
       <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>2461161</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
@@ -1330,17 +1310,17 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6">
@@ -1356,77 +1336,77 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16">
         <v>2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
+      <c r="G30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6">
+      <c r="G31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>64</v>
+      <c r="A33" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>49</v>
@@ -1434,10 +1414,10 @@
       <c r="C33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>3231229</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>4</v>
       </c>
       <c r="F33" s="6">
@@ -1453,153 +1433,153 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16">
+        <v>19</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16">
+        <v>4</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6">
-        <f t="shared" si="0"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="G37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7">
-        <v>19</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="B40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
-        <v>4</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6">
+      <c r="G40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
